--- a/[3] Test Input/RESULTS_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_EXP.xlsx
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.95555555555556</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>29.85</v>
+        <v>29.65555555555555</v>
       </c>
       <c r="F2" t="n">
-        <v>17.89444444444445</v>
+        <v>27.63333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>51.03333333333333</v>
+        <v>22.25555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>51.44552777777778</v>
+        <v>21.96125766587505</v>
       </c>
       <c r="I2" t="n">
-        <v>46.05672222222222</v>
+        <v>20.50598857972331</v>
       </c>
       <c r="J2" t="n">
-        <v>19.89066666666666</v>
+        <v>6.862138888888889</v>
       </c>
       <c r="K2" t="n">
-        <v>154.9486388888889</v>
+        <v>21.59813888888889</v>
       </c>
       <c r="L2" t="n">
-        <v>5141.523499999999</v>
+        <v>789.831287037037</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>30.36111111111111</v>
+        <v>29.71111111111111</v>
       </c>
       <c r="F3" t="n">
-        <v>19.16111111111111</v>
+        <v>27.71111111111111</v>
       </c>
       <c r="G3" t="n">
-        <v>81.55555555555556</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>81.60941666666666</v>
+        <v>33.42465695712985</v>
       </c>
       <c r="I3" t="n">
-        <v>73.07680555555555</v>
+        <v>30.5441493842003</v>
       </c>
       <c r="J3" t="n">
-        <v>32.69605555555555</v>
+        <v>11.15383333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>160.3030833333333</v>
+        <v>23.00558333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>9320.026638888889</v>
+        <v>1339.478694444444</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.61111111111111</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>31.68333333333333</v>
+        <v>30.93888888888889</v>
       </c>
       <c r="F4" t="n">
-        <v>20.07222222222222</v>
+        <v>28.87222222222222</v>
       </c>
       <c r="G4" t="n">
-        <v>68.36666666666666</v>
+        <v>29.14722222222222</v>
       </c>
       <c r="H4" t="n">
-        <v>68.57730555555555</v>
+        <v>28.49744968655877</v>
       </c>
       <c r="I4" t="n">
-        <v>61.21361111111111</v>
+        <v>26.9560862745389</v>
       </c>
       <c r="J4" t="n">
-        <v>28.68847222222222</v>
+        <v>9.135277777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>204.5681944444444</v>
+        <v>21.93455555555555</v>
       </c>
       <c r="L4" t="n">
-        <v>9013.916722222222</v>
+        <v>1020.829527777778</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.24074074074074</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.65</v>
+        <v>30.03518518518518</v>
       </c>
       <c r="F5" t="n">
-        <v>19.40925925925926</v>
+        <v>28.03518518518518</v>
       </c>
       <c r="G5" t="n">
-        <v>66.99259259259259</v>
+        <v>28.14444444444445</v>
       </c>
       <c r="H5" t="n">
-        <v>67.34049074074073</v>
+        <v>27.51408277758875</v>
       </c>
       <c r="I5" t="n">
-        <v>58.88837037037037</v>
+        <v>26.06898610870168</v>
       </c>
       <c r="J5" t="n">
-        <v>27.27477777777778</v>
+        <v>9.163314814814814</v>
       </c>
       <c r="K5" t="n">
-        <v>160.959787037037</v>
+        <v>26.80355555555555</v>
       </c>
       <c r="L5" t="n">
-        <v>7400.116046296297</v>
+        <v>1041.703</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9.427777777777777</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>30.21666666666667</v>
+        <v>27.25555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>20.78888888888889</v>
+        <v>25.23333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>116.0861111111111</v>
+        <v>49.23055555555555</v>
       </c>
       <c r="H6" t="n">
-        <v>116.2571388888889</v>
+        <v>48.64922355498427</v>
       </c>
       <c r="I6" t="n">
-        <v>102.6871666666667</v>
+        <v>46.86456956165888</v>
       </c>
       <c r="J6" t="n">
-        <v>48.84283333333334</v>
+        <v>15.79775</v>
       </c>
       <c r="K6" t="n">
-        <v>174.2913888888889</v>
+        <v>28.80888888888889</v>
       </c>
       <c r="L6" t="n">
-        <v>14626.94758333333</v>
+        <v>1918.719944444445</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.16666666666667</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="E7" t="n">
-        <v>31.57222222222222</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>21.40555555555556</v>
+        <v>27.52222222222222</v>
       </c>
       <c r="G7" t="n">
-        <v>100.325</v>
+        <v>40.34166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>100.5505277777778</v>
+        <v>39.68292288286107</v>
       </c>
       <c r="I7" t="n">
-        <v>90.30333333333334</v>
+        <v>37.75194410312888</v>
       </c>
       <c r="J7" t="n">
-        <v>41.20794444444444</v>
+        <v>13.28861111111111</v>
       </c>
       <c r="K7" t="n">
-        <v>146.3938888888889</v>
+        <v>27.35730555555556</v>
       </c>
       <c r="L7" t="n">
-        <v>11037.77788888889</v>
+        <v>1458.664972222222</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.15740740740741</v>
+        <v>2.292592592592593</v>
       </c>
       <c r="E8" t="n">
-        <v>30.17592592592592</v>
+        <v>26.37962962962963</v>
       </c>
       <c r="F8" t="n">
-        <v>19.01851851851852</v>
+        <v>24.08703703703704</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2416666666667</v>
+        <v>55.66203703703704</v>
       </c>
       <c r="H8" t="n">
-        <v>121.9639351851852</v>
+        <v>54.18566349743252</v>
       </c>
       <c r="I8" t="n">
-        <v>112.2767407407407</v>
+        <v>51.55424126348443</v>
       </c>
       <c r="J8" t="n">
-        <v>49.97112037037037</v>
+        <v>17.99659259259259</v>
       </c>
       <c r="K8" t="n">
-        <v>151.8361944444445</v>
+        <v>36.48327777777778</v>
       </c>
       <c r="L8" t="n">
-        <v>13564.09412037037</v>
+        <v>2570.880212962963</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.888888888888889</v>
+        <v>2.044444444444444</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2</v>
+        <v>22.16296296296296</v>
       </c>
       <c r="F9" t="n">
-        <v>22.31111111111111</v>
+        <v>20.11851851851852</v>
       </c>
       <c r="G9" t="n">
-        <v>253.7324074074074</v>
+        <v>118.8361111111111</v>
       </c>
       <c r="H9" t="n">
-        <v>252.5991759259259</v>
+        <v>114.1594661157406</v>
       </c>
       <c r="I9" t="n">
-        <v>232.9531666666667</v>
+        <v>106.0472696857411</v>
       </c>
       <c r="J9" t="n">
-        <v>102.0334537037037</v>
+        <v>39.07841666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4442314814815</v>
+        <v>36.49142592592593</v>
       </c>
       <c r="L9" t="n">
-        <v>27521.70260185185</v>
+        <v>4994.996657407408</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10.84259259259259</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>30.67222222222222</v>
+        <v>26.97962962962963</v>
       </c>
       <c r="F10" t="n">
-        <v>19.82962962962963</v>
+        <v>24.8462962962963</v>
       </c>
       <c r="G10" t="n">
-        <v>143.2564814814815</v>
+        <v>63.59629629629629</v>
       </c>
       <c r="H10" t="n">
-        <v>143.0892037037037</v>
+        <v>61.59486628894339</v>
       </c>
       <c r="I10" t="n">
-        <v>129.7552592592593</v>
+        <v>57.53598960323583</v>
       </c>
       <c r="J10" t="n">
-        <v>54.42422222222223</v>
+        <v>20.55932407407407</v>
       </c>
       <c r="K10" t="n">
-        <v>101.1248055555556</v>
+        <v>64158.3107962963</v>
       </c>
       <c r="L10" t="n">
-        <v>12349.21887037037</v>
+        <v>2883.227129629629</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.14444444444444</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>32.21481481481482</v>
+        <v>22.23333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>22.07037037037037</v>
+        <v>20.23333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>143.8490740740741</v>
+        <v>64.86018518518519</v>
       </c>
       <c r="H11" t="n">
-        <v>142.3354814814815</v>
+        <v>62.16552303125169</v>
       </c>
       <c r="I11" t="n">
-        <v>126.3355925925926</v>
+        <v>56.96531030804541</v>
       </c>
       <c r="J11" t="n">
-        <v>59.17541666666667</v>
+        <v>21.85737037037037</v>
       </c>
       <c r="K11" t="n">
-        <v>136.7964351851852</v>
+        <v>44.17318518518519</v>
       </c>
       <c r="L11" t="n">
-        <v>14187.8535462963</v>
+        <v>3042.907481481482</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.05555555555556</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>32.08703703703704</v>
+        <v>22.60185185185185</v>
       </c>
       <c r="F12" t="n">
-        <v>22.03148148148148</v>
+        <v>20.60185185185185</v>
       </c>
       <c r="G12" t="n">
-        <v>219.0037037037037</v>
+        <v>99.19444444444444</v>
       </c>
       <c r="H12" t="n">
-        <v>218.3167685185185</v>
+        <v>96.62942811997699</v>
       </c>
       <c r="I12" t="n">
-        <v>191.1711203703704</v>
+        <v>88.5284630905587</v>
       </c>
       <c r="J12" t="n">
-        <v>78.73600925925926</v>
+        <v>32.99925925925926</v>
       </c>
       <c r="K12" t="n">
-        <v>70.51983333333334</v>
+        <v>37.75848148148148</v>
       </c>
       <c r="L12" t="n">
-        <v>16014.40355555556</v>
+        <v>4556.220101851852</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.04444444444444</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>30.22222222222222</v>
+        <v>21.03888888888889</v>
       </c>
       <c r="F13" t="n">
-        <v>20.17777777777778</v>
+        <v>19.03888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>185.6916666666667</v>
+        <v>81.84166666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>185.6941944444444</v>
+        <v>78.42160652447065</v>
       </c>
       <c r="I13" t="n">
-        <v>165.8295833333333</v>
+        <v>70.98985545199619</v>
       </c>
       <c r="J13" t="n">
-        <v>76.59886111111112</v>
+        <v>27.62572222222222</v>
       </c>
       <c r="K13" t="n">
-        <v>160.4697222222222</v>
+        <v>34.04391666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>20328.45875</v>
+        <v>3379.653944444444</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10.31666666666667</v>
+        <v>2.022222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>30.71666666666667</v>
+        <v>24.5537037037037</v>
       </c>
       <c r="F14" t="n">
-        <v>20.4</v>
+        <v>22.53148148148148</v>
       </c>
       <c r="G14" t="n">
-        <v>107.9111111111111</v>
+        <v>46.86574074074074</v>
       </c>
       <c r="H14" t="n">
-        <v>107.9314166666667</v>
+        <v>45.59000580978133</v>
       </c>
       <c r="I14" t="n">
-        <v>99.19644444444445</v>
+        <v>42.48493221549055</v>
       </c>
       <c r="J14" t="n">
-        <v>41.57172222222223</v>
+        <v>15.67258333333333</v>
       </c>
       <c r="K14" t="n">
-        <v>115.81075</v>
+        <v>34.42885185185185</v>
       </c>
       <c r="L14" t="n">
-        <v>9411.079861111111</v>
+        <v>1976.094120370371</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.28333333333333</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>25.86111111111111</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>14.57777777777778</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>101.6916666666667</v>
+        <v>57.14166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>101.9561388888889</v>
+        <v>54.76388339482701</v>
       </c>
       <c r="I15" t="n">
-        <v>92.08230555555556</v>
+        <v>52.39647463937229</v>
       </c>
       <c r="J15" t="n">
-        <v>36.67308333333333</v>
+        <v>17.45683333333334</v>
       </c>
       <c r="K15" t="n">
-        <v>113.3460555555556</v>
+        <v>35.36344444444445</v>
       </c>
       <c r="L15" t="n">
-        <v>8791.101638888889</v>
+        <v>2519.225083333333</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.949999999999999</v>
+        <v>2.027777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>28.77777777777778</v>
+        <v>26.51111111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>18.82777777777778</v>
+        <v>24.48333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>151.5138888888889</v>
+        <v>80.03888888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>151.72325</v>
+        <v>78.03582569404539</v>
       </c>
       <c r="I16" t="n">
-        <v>140.1359722222222</v>
+        <v>72.95092377772896</v>
       </c>
       <c r="J16" t="n">
-        <v>46.45413888888888</v>
+        <v>25.07125</v>
       </c>
       <c r="K16" t="n">
-        <v>59.98061111111112</v>
+        <v>-21107.42941666667</v>
       </c>
       <c r="L16" t="n">
-        <v>9313.030583333333</v>
+        <v>2720.222</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.42222222222222</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>29.94444444444444</v>
+        <v>29.71111111111111</v>
       </c>
       <c r="F17" t="n">
-        <v>18.52222222222222</v>
+        <v>27.71111111111111</v>
       </c>
       <c r="G17" t="n">
-        <v>73.05000000000001</v>
+        <v>30.69722222222222</v>
       </c>
       <c r="H17" t="n">
-        <v>73.31824999999999</v>
+        <v>30.34846120053061</v>
       </c>
       <c r="I17" t="n">
-        <v>66.43708333333333</v>
+        <v>29.2513727923526</v>
       </c>
       <c r="J17" t="n">
-        <v>28.31416666666667</v>
+        <v>9.527361111111112</v>
       </c>
       <c r="K17" t="n">
-        <v>151.50675</v>
+        <v>24.44741666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>7283.675527777778</v>
+        <v>1047.534638888889</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.649999999999999</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>31.93888888888889</v>
+        <v>24.57777777777778</v>
       </c>
       <c r="F18" t="n">
-        <v>22.28888888888889</v>
+        <v>22.51111111111111</v>
       </c>
       <c r="G18" t="n">
-        <v>123.6694444444445</v>
+        <v>51.81388888888889</v>
       </c>
       <c r="H18" t="n">
-        <v>123.0081944444444</v>
+        <v>50.94075984766225</v>
       </c>
       <c r="I18" t="n">
-        <v>111.9531111111111</v>
+        <v>49.03421071484463</v>
       </c>
       <c r="J18" t="n">
-        <v>52.42277777777778</v>
+        <v>17.57672222222222</v>
       </c>
       <c r="K18" t="n">
-        <v>143.492</v>
+        <v>35.03758333333334</v>
       </c>
       <c r="L18" t="n">
-        <v>14383.65822222222</v>
+        <v>2358.664194444444</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.14444444444444</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>30.28888888888889</v>
+        <v>30.53888888888889</v>
       </c>
       <c r="F19" t="n">
-        <v>20.14444444444445</v>
+        <v>28.53888888888889</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1092592592593</v>
+        <v>48.14166666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>119.9217314814815</v>
+        <v>47.55222499010297</v>
       </c>
       <c r="I19" t="n">
-        <v>109.8605833333333</v>
+        <v>46.68752621558725</v>
       </c>
       <c r="J19" t="n">
-        <v>46.16347222222223</v>
+        <v>15.41988888888889</v>
       </c>
       <c r="K19" t="n">
-        <v>120.5108240740741</v>
+        <v>24.87657407407407</v>
       </c>
       <c r="L19" t="n">
-        <v>10487.19562962963</v>
+        <v>1516.304435185185</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.022222222222222</v>
+        <v>29.65555555555555</v>
       </c>
       <c r="E2" t="n">
-        <v>29.65555555555555</v>
+        <v>22.25555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>27.63333333333333</v>
+        <v>21.96125766587505</v>
       </c>
       <c r="G2" t="n">
-        <v>22.25555555555556</v>
+        <v>20.50598857972331</v>
       </c>
       <c r="H2" t="n">
-        <v>21.96125766587505</v>
+        <v>6.862138888888889</v>
       </c>
       <c r="I2" t="n">
-        <v>20.50598857972331</v>
+        <v>21.59813888888889</v>
       </c>
       <c r="J2" t="n">
-        <v>6.862138888888889</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.59813888888889</v>
-      </c>
-      <c r="L2" t="n">
         <v>789.831287037037</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>29.71111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>29.71111111111111</v>
+        <v>34.46666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>27.71111111111111</v>
+        <v>33.42465695712985</v>
       </c>
       <c r="G3" t="n">
-        <v>34.46666666666667</v>
+        <v>30.5441493842003</v>
       </c>
       <c r="H3" t="n">
-        <v>33.42465695712985</v>
+        <v>11.15383333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>30.5441493842003</v>
+        <v>23.00558333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>11.15383333333333</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23.00558333333333</v>
-      </c>
-      <c r="L3" t="n">
         <v>1339.478694444444</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.066666666666667</v>
+        <v>30.93888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>30.93888888888889</v>
+        <v>29.14722222222222</v>
       </c>
       <c r="F4" t="n">
-        <v>28.87222222222222</v>
+        <v>28.49744968655877</v>
       </c>
       <c r="G4" t="n">
-        <v>29.14722222222222</v>
+        <v>26.9560862745389</v>
       </c>
       <c r="H4" t="n">
-        <v>28.49744968655877</v>
+        <v>9.135277777777778</v>
       </c>
       <c r="I4" t="n">
-        <v>26.9560862745389</v>
+        <v>21.93455555555555</v>
       </c>
       <c r="J4" t="n">
-        <v>9.135277777777778</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.93455555555555</v>
-      </c>
-      <c r="L4" t="n">
         <v>1020.829527777778</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>30.03518518518518</v>
       </c>
       <c r="E5" t="n">
-        <v>30.03518518518518</v>
+        <v>28.14444444444445</v>
       </c>
       <c r="F5" t="n">
-        <v>28.03518518518518</v>
+        <v>27.51408277758875</v>
       </c>
       <c r="G5" t="n">
-        <v>28.14444444444445</v>
+        <v>26.06898610870168</v>
       </c>
       <c r="H5" t="n">
-        <v>27.51408277758875</v>
+        <v>9.163314814814814</v>
       </c>
       <c r="I5" t="n">
-        <v>26.06898610870168</v>
+        <v>26.80355555555555</v>
       </c>
       <c r="J5" t="n">
-        <v>9.163314814814814</v>
-      </c>
-      <c r="K5" t="n">
-        <v>26.80355555555555</v>
-      </c>
-      <c r="L5" t="n">
         <v>1041.703</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.022222222222222</v>
+        <v>27.25555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>27.25555555555556</v>
+        <v>49.23055555555555</v>
       </c>
       <c r="F6" t="n">
-        <v>25.23333333333333</v>
+        <v>48.64922355498427</v>
       </c>
       <c r="G6" t="n">
-        <v>49.23055555555555</v>
+        <v>46.86456956165888</v>
       </c>
       <c r="H6" t="n">
-        <v>48.64922355498427</v>
+        <v>15.79775</v>
       </c>
       <c r="I6" t="n">
-        <v>46.86456956165888</v>
+        <v>28.80888888888889</v>
       </c>
       <c r="J6" t="n">
-        <v>15.79775</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.80888888888889</v>
-      </c>
-      <c r="L6" t="n">
         <v>1918.719944444445</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.111111111111111</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>29.63333333333333</v>
+        <v>40.34166666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>27.52222222222222</v>
+        <v>39.68292288286107</v>
       </c>
       <c r="G7" t="n">
-        <v>40.34166666666667</v>
+        <v>37.75194410312888</v>
       </c>
       <c r="H7" t="n">
-        <v>39.68292288286107</v>
+        <v>13.28861111111111</v>
       </c>
       <c r="I7" t="n">
-        <v>37.75194410312888</v>
+        <v>27.35730555555556</v>
       </c>
       <c r="J7" t="n">
-        <v>13.28861111111111</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27.35730555555556</v>
-      </c>
-      <c r="L7" t="n">
         <v>1458.664972222222</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.292592592592593</v>
+        <v>26.37962962962963</v>
       </c>
       <c r="E8" t="n">
-        <v>26.37962962962963</v>
+        <v>55.66203703703704</v>
       </c>
       <c r="F8" t="n">
-        <v>24.08703703703704</v>
+        <v>54.18566349743252</v>
       </c>
       <c r="G8" t="n">
-        <v>55.66203703703704</v>
+        <v>51.55424126348443</v>
       </c>
       <c r="H8" t="n">
-        <v>54.18566349743252</v>
+        <v>17.99659259259259</v>
       </c>
       <c r="I8" t="n">
-        <v>51.55424126348443</v>
+        <v>36.48327777777778</v>
       </c>
       <c r="J8" t="n">
-        <v>17.99659259259259</v>
-      </c>
-      <c r="K8" t="n">
-        <v>36.48327777777778</v>
-      </c>
-      <c r="L8" t="n">
         <v>2570.880212962963</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.044444444444444</v>
+        <v>22.16296296296296</v>
       </c>
       <c r="E9" t="n">
-        <v>22.16296296296296</v>
+        <v>118.8361111111111</v>
       </c>
       <c r="F9" t="n">
-        <v>20.11851851851852</v>
+        <v>114.1594661157406</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8361111111111</v>
+        <v>106.0472696857411</v>
       </c>
       <c r="H9" t="n">
-        <v>114.1594661157406</v>
+        <v>39.07841666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>106.0472696857411</v>
+        <v>36.49142592592593</v>
       </c>
       <c r="J9" t="n">
-        <v>39.07841666666667</v>
-      </c>
-      <c r="K9" t="n">
-        <v>36.49142592592593</v>
-      </c>
-      <c r="L9" t="n">
         <v>4994.996657407408</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.133333333333333</v>
+        <v>26.97962962962963</v>
       </c>
       <c r="E10" t="n">
-        <v>26.97962962962963</v>
+        <v>63.59629629629629</v>
       </c>
       <c r="F10" t="n">
-        <v>24.8462962962963</v>
+        <v>61.59486628894339</v>
       </c>
       <c r="G10" t="n">
-        <v>63.59629629629629</v>
+        <v>57.53598960323583</v>
       </c>
       <c r="H10" t="n">
-        <v>61.59486628894339</v>
+        <v>20.55932407407407</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53598960323583</v>
+        <v>64158.3107962963</v>
       </c>
       <c r="J10" t="n">
-        <v>20.55932407407407</v>
-      </c>
-      <c r="K10" t="n">
-        <v>64158.3107962963</v>
-      </c>
-      <c r="L10" t="n">
         <v>2883.227129629629</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>22.23333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>22.23333333333333</v>
+        <v>64.86018518518519</v>
       </c>
       <c r="F11" t="n">
-        <v>20.23333333333333</v>
+        <v>62.16552303125169</v>
       </c>
       <c r="G11" t="n">
-        <v>64.86018518518519</v>
+        <v>56.96531030804541</v>
       </c>
       <c r="H11" t="n">
-        <v>62.16552303125169</v>
+        <v>21.85737037037037</v>
       </c>
       <c r="I11" t="n">
-        <v>56.96531030804541</v>
+        <v>44.17318518518519</v>
       </c>
       <c r="J11" t="n">
-        <v>21.85737037037037</v>
-      </c>
-      <c r="K11" t="n">
-        <v>44.17318518518519</v>
-      </c>
-      <c r="L11" t="n">
         <v>3042.907481481482</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>22.60185185185185</v>
       </c>
       <c r="E12" t="n">
-        <v>22.60185185185185</v>
+        <v>99.19444444444444</v>
       </c>
       <c r="F12" t="n">
-        <v>20.60185185185185</v>
+        <v>96.62942811997699</v>
       </c>
       <c r="G12" t="n">
-        <v>99.19444444444444</v>
+        <v>88.5284630905587</v>
       </c>
       <c r="H12" t="n">
-        <v>96.62942811997699</v>
+        <v>32.99925925925926</v>
       </c>
       <c r="I12" t="n">
-        <v>88.5284630905587</v>
+        <v>37.75848148148148</v>
       </c>
       <c r="J12" t="n">
-        <v>32.99925925925926</v>
-      </c>
-      <c r="K12" t="n">
-        <v>37.75848148148148</v>
-      </c>
-      <c r="L12" t="n">
         <v>4556.220101851852</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>21.03888888888889</v>
       </c>
       <c r="E13" t="n">
-        <v>21.03888888888889</v>
+        <v>81.84166666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>19.03888888888889</v>
+        <v>78.42160652447065</v>
       </c>
       <c r="G13" t="n">
-        <v>81.84166666666667</v>
+        <v>70.98985545199619</v>
       </c>
       <c r="H13" t="n">
-        <v>78.42160652447065</v>
+        <v>27.62572222222222</v>
       </c>
       <c r="I13" t="n">
-        <v>70.98985545199619</v>
+        <v>34.04391666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>27.62572222222222</v>
-      </c>
-      <c r="K13" t="n">
-        <v>34.04391666666667</v>
-      </c>
-      <c r="L13" t="n">
         <v>3379.653944444444</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.022222222222222</v>
+        <v>24.5537037037037</v>
       </c>
       <c r="E14" t="n">
-        <v>24.5537037037037</v>
+        <v>46.86574074074074</v>
       </c>
       <c r="F14" t="n">
-        <v>22.53148148148148</v>
+        <v>45.59000580978133</v>
       </c>
       <c r="G14" t="n">
-        <v>46.86574074074074</v>
+        <v>42.48493221549055</v>
       </c>
       <c r="H14" t="n">
-        <v>45.59000580978133</v>
+        <v>15.67258333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>42.48493221549055</v>
+        <v>34.42885185185185</v>
       </c>
       <c r="J14" t="n">
-        <v>15.67258333333333</v>
-      </c>
-      <c r="K14" t="n">
-        <v>34.42885185185185</v>
-      </c>
-      <c r="L14" t="n">
         <v>1976.094120370371</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28333333333333</v>
+        <v>57.14166666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28333333333333</v>
+        <v>54.76388339482701</v>
       </c>
       <c r="G15" t="n">
-        <v>57.14166666666667</v>
+        <v>52.39647463937229</v>
       </c>
       <c r="H15" t="n">
-        <v>54.76388339482701</v>
+        <v>17.45683333333334</v>
       </c>
       <c r="I15" t="n">
-        <v>52.39647463937229</v>
+        <v>35.36344444444445</v>
       </c>
       <c r="J15" t="n">
-        <v>17.45683333333334</v>
-      </c>
-      <c r="K15" t="n">
-        <v>35.36344444444445</v>
-      </c>
-      <c r="L15" t="n">
         <v>2519.225083333333</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.027777777777778</v>
+        <v>26.51111111111111</v>
       </c>
       <c r="E16" t="n">
-        <v>26.51111111111111</v>
+        <v>80.03888888888889</v>
       </c>
       <c r="F16" t="n">
-        <v>24.48333333333333</v>
+        <v>78.03582569404539</v>
       </c>
       <c r="G16" t="n">
-        <v>80.03888888888889</v>
+        <v>72.95092377772896</v>
       </c>
       <c r="H16" t="n">
-        <v>78.03582569404539</v>
+        <v>25.07125</v>
       </c>
       <c r="I16" t="n">
-        <v>72.95092377772896</v>
+        <v>-21107.42941666667</v>
       </c>
       <c r="J16" t="n">
-        <v>25.07125</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-21107.42941666667</v>
-      </c>
-      <c r="L16" t="n">
         <v>2720.222</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>29.71111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>29.71111111111111</v>
+        <v>30.69722222222222</v>
       </c>
       <c r="F17" t="n">
-        <v>27.71111111111111</v>
+        <v>30.34846120053061</v>
       </c>
       <c r="G17" t="n">
-        <v>30.69722222222222</v>
+        <v>29.2513727923526</v>
       </c>
       <c r="H17" t="n">
-        <v>30.34846120053061</v>
+        <v>9.527361111111112</v>
       </c>
       <c r="I17" t="n">
-        <v>29.2513727923526</v>
+        <v>24.44741666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>9.527361111111112</v>
-      </c>
-      <c r="K17" t="n">
-        <v>24.44741666666667</v>
-      </c>
-      <c r="L17" t="n">
         <v>1047.534638888889</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.066666666666667</v>
+        <v>24.57777777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>24.57777777777778</v>
+        <v>51.81388888888889</v>
       </c>
       <c r="F18" t="n">
-        <v>22.51111111111111</v>
+        <v>50.94075984766225</v>
       </c>
       <c r="G18" t="n">
-        <v>51.81388888888889</v>
+        <v>49.03421071484463</v>
       </c>
       <c r="H18" t="n">
-        <v>50.94075984766225</v>
+        <v>17.57672222222222</v>
       </c>
       <c r="I18" t="n">
-        <v>49.03421071484463</v>
+        <v>35.03758333333334</v>
       </c>
       <c r="J18" t="n">
-        <v>17.57672222222222</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35.03758333333334</v>
-      </c>
-      <c r="L18" t="n">
         <v>2358.664194444444</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>30.53888888888889</v>
       </c>
       <c r="E19" t="n">
-        <v>30.53888888888889</v>
+        <v>48.14166666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>28.53888888888889</v>
+        <v>47.55222499010297</v>
       </c>
       <c r="G19" t="n">
-        <v>48.14166666666667</v>
+        <v>46.68752621558725</v>
       </c>
       <c r="H19" t="n">
-        <v>47.55222499010297</v>
+        <v>15.41988888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68752621558725</v>
+        <v>24.87657407407407</v>
       </c>
       <c r="J19" t="n">
-        <v>15.41988888888889</v>
-      </c>
-      <c r="K19" t="n">
-        <v>24.87657407407407</v>
-      </c>
-      <c r="L19" t="n">
         <v>1516.304435185185</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_MERGED_EXP.xlsx
+++ b/[3] Test Input/RESULTS_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -517,10 +512,7 @@
         <v>6.862138888888889</v>
       </c>
       <c r="I2" t="n">
-        <v>21.59813888888889</v>
-      </c>
-      <c r="J2" t="n">
-        <v>789.831287037037</v>
+        <v>505.3580555555556</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>11.15383333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>23.00558333333333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1339.478694444444</v>
+        <v>876.2749722222222</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>9.135277777777778</v>
       </c>
       <c r="I4" t="n">
-        <v>21.93455555555555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1020.829527777778</v>
+        <v>655.9010555555556</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>9.163314814814814</v>
       </c>
       <c r="I5" t="n">
-        <v>26.80355555555555</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1041.703</v>
+        <v>659.389324074074</v>
       </c>
     </row>
     <row r="6">
@@ -669,10 +652,7 @@
         <v>15.79775</v>
       </c>
       <c r="I6" t="n">
-        <v>28.80888888888889</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1918.719944444445</v>
+        <v>1207.658972222222</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +687,7 @@
         <v>13.28861111111111</v>
       </c>
       <c r="I7" t="n">
-        <v>27.35730555555556</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1458.664972222222</v>
+        <v>932.5849166666667</v>
       </c>
     </row>
     <row r="8">
@@ -745,10 +722,7 @@
         <v>17.99659259259259</v>
       </c>
       <c r="I8" t="n">
-        <v>36.48327777777778</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2570.880212962963</v>
+        <v>1641.607722222222</v>
       </c>
     </row>
     <row r="9">
@@ -783,10 +757,7 @@
         <v>39.07841666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>36.49142592592593</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4994.996657407408</v>
+        <v>3323.712388888889</v>
       </c>
     </row>
     <row r="10">
@@ -821,10 +792,7 @@
         <v>20.55932407407407</v>
       </c>
       <c r="I10" t="n">
-        <v>64158.3107962963</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2883.227129629629</v>
+        <v>1874.428416666667</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +827,7 @@
         <v>21.85737037037037</v>
       </c>
       <c r="I11" t="n">
-        <v>44.17318518518519</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3042.907481481482</v>
+        <v>1941.707462962963</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +862,7 @@
         <v>32.99925925925926</v>
       </c>
       <c r="I12" t="n">
-        <v>37.75848148148148</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4556.220101851852</v>
+        <v>2890.889166666666</v>
       </c>
     </row>
     <row r="13">
@@ -935,10 +897,7 @@
         <v>27.62572222222222</v>
       </c>
       <c r="I13" t="n">
-        <v>34.04391666666667</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3379.653944444444</v>
+        <v>2269.828777777778</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +932,7 @@
         <v>15.67258333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>34.42885185185185</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1976.094120370371</v>
+        <v>1266.313898148148</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>17.45683333333334</v>
       </c>
       <c r="I15" t="n">
-        <v>35.36344444444445</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2519.225083333333</v>
+        <v>1649.529833333333</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>25.07125</v>
       </c>
       <c r="I16" t="n">
-        <v>-21107.42941666667</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2720.222</v>
+        <v>1836.095388888889</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>9.527361111111112</v>
       </c>
       <c r="I17" t="n">
-        <v>24.44741666666667</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1047.534638888889</v>
+        <v>670.8101111111112</v>
       </c>
     </row>
     <row r="18">
@@ -1125,10 +1072,7 @@
         <v>17.57672222222222</v>
       </c>
       <c r="I18" t="n">
-        <v>35.03758333333334</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2358.664194444444</v>
+        <v>1477.602666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>15.41988888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>24.87657407407407</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1516.304435185185</v>
+        <v>957.3797407407407</v>
       </c>
     </row>
   </sheetData>
